--- a/data/teaching.xlsx
+++ b/data/teaching.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cofinlay\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544BD481-28B9-41DD-A2BC-86E3D33E6DD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7A702D-4A9C-4F89-8D5C-B44EABD9A141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11540" yWindow="4180" windowWidth="24500" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22620" yWindow="4875" windowWidth="22020" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>with</t>
   </si>
@@ -42,45 +42,9 @@
     <t>where</t>
   </si>
   <si>
-    <t>Major Title</t>
-  </si>
-  <si>
-    <t>Subtitle</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>rightmost</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Institution</t>
-  </si>
-  <si>
-    <t>Supervisor</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Course</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T cell differentiation, effector function and regulation (4 lectures) </t>
-  </si>
-  <si>
     <t>Cancer immunology and immunotherapy (2 lectures)</t>
   </si>
   <si>
-    <t xml:space="preserve">EAE as a model for multiple sclerosis </t>
-  </si>
-  <si>
     <t>Introduction to parasite and type 2 Immune responses (3 lectures)</t>
   </si>
   <si>
@@ -93,29 +57,48 @@
     <t xml:space="preserve">MSc in Immunology </t>
   </si>
   <si>
-    <t>BA(Mod)</t>
-  </si>
-  <si>
     <t>2016-2017</t>
   </si>
   <si>
     <t>2014-2017</t>
+  </si>
+  <si>
+    <t>BA(Mod) Biochemisty with Immunology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tutorials </t>
+  </si>
+  <si>
+    <t>Ongoing small group tutorials for 3 students each year.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part of immuogenetics module - assesment: student presentations of bioinformatic analysis </t>
+  </si>
+  <si>
+    <t>20 students</t>
+  </si>
+  <si>
+    <t>30 Students</t>
+  </si>
+  <si>
+    <t>3 students</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T cells (4 lectures) </t>
+  </si>
+  <si>
+    <t>Multiple sclerosis (1 lecture)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assesment: wirtten exam </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -149,10 +132,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,18 +415,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A3" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="78.85546875" customWidth="1"/>
+    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="87.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,104 +447,120 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>2021</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9">
-        <v>2021</v>
+      <c r="E8" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/teaching.xlsx
+++ b/data/teaching.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7A702D-4A9C-4F89-8D5C-B44EABD9A141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FD73E2-04C5-4A14-B693-9B343A4DCA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22620" yWindow="4875" windowWidth="22020" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>with</t>
   </si>
@@ -63,18 +63,6 @@
     <t>2014-2017</t>
   </si>
   <si>
-    <t>BA(Mod) Biochemisty with Immunology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tutorials </t>
-  </si>
-  <si>
-    <t>Ongoing small group tutorials for 3 students each year.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Part of immuogenetics module - assesment: student presentations of bioinformatic analysis </t>
-  </si>
-  <si>
     <t>20 students</t>
   </si>
   <si>
@@ -90,14 +78,41 @@
     <t>Multiple sclerosis (1 lecture)</t>
   </si>
   <si>
-    <t xml:space="preserve">Assesment: wirtten exam </t>
+    <t xml:space="preserve">Integrtated Tutorials </t>
+  </si>
+  <si>
+    <t>BA(Mod) Biochemisty with Immunology (3rd year)</t>
+  </si>
+  <si>
+    <t>BA(Mod) Biochemisty with Immunology (4th year)</t>
+  </si>
+  <si>
+    <t>Ongoing small group tutorials for 3 students each year integrated with specific modules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This advanced course teaches most aspect of T cell biology form development, T cell education, tolerance, activation through the immunological synapse, APC function, co-stimulation, expansion, tissue/lymph node homing, T cell subset differentiation, regulation and the concept of immune responses types. Assessment: written exam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brief history of chemotherapy, failed early immune oncology interventions, recent success, checkpoint inhibitors, combination studies, CAR-T cell, future perspectives Assessment: written exam </t>
+  </si>
+  <si>
+    <t>Th1 and Th17 cells in autoimmunity, animal models of disease, S1p1 inhibitors, VLA4, future targets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is an advanced course that covers aspect of type 2 immune responses. Th2 cells, helminth infections, eosinophils, M2 macrophages, wound repair, hygiene hypothesis and allergy. Workshop style with three PBL topics. Assessment: written exam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introductory course to T cell biology, differentiation and the cytokine control of immune responses.  Assessment: written exam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part of immunogenetics module - This included 3 dry lab sessions (in person) and assessment: student presentations of bioinformatic analysis (microarray) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +125,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -132,9 +154,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,13 +443,13 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:XFD3"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="78.85546875" customWidth="1"/>
-    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" customWidth="1"/>
     <col min="5" max="5" width="87.7109375" customWidth="1"/>
@@ -449,18 +474,18 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -469,30 +494,33 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -506,10 +534,10 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -523,10 +551,10 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -540,30 +568,31 @@
         <v>2021</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
         <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/teaching.xlsx
+++ b/data/teaching.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cofinlay\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FD73E2-04C5-4A14-B693-9B343A4DCA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E807B2-32B3-4FEE-8AF2-63A3FB6243B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>with</t>
   </si>
@@ -106,6 +106,18 @@
   </si>
   <si>
     <t xml:space="preserve">Part of immunogenetics module - This included 3 dry lab sessions (in person) and assessment: student presentations of bioinformatic analysis (microarray) </t>
+  </si>
+  <si>
+    <t>Introduction to Transcriptomics and single cell technologies</t>
+  </si>
+  <si>
+    <t>Transcriptomics (2 hr workdshop)</t>
+  </si>
+  <si>
+    <t>Datascience for Immunology (3 workshops and assessment)</t>
+  </si>
+  <si>
+    <t>12 hours direct teaching time. Introduction to R programming, with a focus on analysis in R markdown. Analysing and visualising immunology data in R. Single cell RNA-sequencing analysis. Student assessment in Single cell RNA-sequencing analysis. Module design and attending curriculum meetings.</t>
   </si>
 </sst>
 </file>
@@ -440,22 +452,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="78.85546875" customWidth="1"/>
+    <col min="1" max="1" width="78.81640625" customWidth="1"/>
     <col min="2" max="2" width="56" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="87.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" customWidth="1"/>
+    <col min="5" max="5" width="87.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,7 +484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -489,7 +501,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -506,7 +518,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -523,7 +535,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -540,7 +552,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -557,7 +569,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -574,7 +586,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -589,6 +601,40 @@
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>2022</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>2022</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/data/teaching.xlsx
+++ b/data/teaching.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cofinlay\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E807B2-32B3-4FEE-8AF2-63A3FB6243B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA55EEB-B329-48FF-9DAD-45BA22E653D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16095" yWindow="3585" windowWidth="29850" windowHeight="16410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
     <t>Datascience for Immunology (3 workshops and assessment)</t>
   </si>
   <si>
-    <t>12 hours direct teaching time. Introduction to R programming, with a focus on analysis in R markdown. Analysing and visualising immunology data in R. Single cell RNA-sequencing analysis. Student assessment in Single cell RNA-sequencing analysis. Module design and attending curriculum meetings.</t>
+    <t xml:space="preserve">12 hours direct teaching time. Introduction to R programming, with a focus on analysis in R markdown. Analysing and visualising immunology data in R. Single cell RNA-sequencing analysis. Student assessment in Single cell RNA-sequencing analysis. Module design and module refrorm via comittee. </t>
   </si>
 </sst>
 </file>
@@ -455,19 +455,19 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.81640625" customWidth="1"/>
+    <col min="1" max="1" width="78.85546875" customWidth="1"/>
     <col min="2" max="2" width="56" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.453125" customWidth="1"/>
-    <col min="5" max="5" width="87.7265625" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="87.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,7 +484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -501,7 +501,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -518,7 +518,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -535,7 +535,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -552,7 +552,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -569,7 +569,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -586,7 +586,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -620,7 +620,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>

--- a/data/teaching.xlsx
+++ b/data/teaching.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorisco/Dropbox (Personal)/Jobs/CV and Publications/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA55EEB-B329-48FF-9DAD-45BA22E653D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D25DDE6-F413-3F49-8F99-CC3F936BCFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16095" yWindow="3585" windowWidth="29850" windowHeight="16410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4700" yWindow="3580" windowWidth="29860" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>with</t>
   </si>
@@ -118,6 +118,15 @@
   </si>
   <si>
     <t xml:space="preserve">12 hours direct teaching time. Introduction to R programming, with a focus on analysis in R markdown. Analysing and visualising immunology data in R. Single cell RNA-sequencing analysis. Student assessment in Single cell RNA-sequencing analysis. Module design and module refrorm via comittee. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to omics technologies </t>
+  </si>
+  <si>
+    <t>Core Research Skills Module</t>
+  </si>
+  <si>
+    <t>General introduction to ustilising omics technologies in reseach to new PhD students</t>
   </si>
 </sst>
 </file>
@@ -452,22 +461,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="78.85546875" customWidth="1"/>
+    <col min="1" max="1" width="78.83203125" customWidth="1"/>
     <col min="2" max="2" width="56" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="87.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="87.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,7 +493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -501,7 +510,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -518,7 +527,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -535,7 +544,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -552,7 +561,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -569,7 +578,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -586,7 +595,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -603,7 +612,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -620,7 +629,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -635,6 +644,23 @@
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>2023</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/data/teaching.xlsx
+++ b/data/teaching.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorisco/Dropbox (Personal)/Jobs/CV and Publications/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D25DDE6-F413-3F49-8F99-CC3F936BCFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3925624B-B10F-FC41-945F-FCAD727E165A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="3580" windowWidth="29860" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="440" yWindow="4860" windowWidth="21460" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>with</t>
   </si>
@@ -78,21 +78,9 @@
     <t>Multiple sclerosis (1 lecture)</t>
   </si>
   <si>
-    <t xml:space="preserve">Integrtated Tutorials </t>
-  </si>
-  <si>
-    <t>BA(Mod) Biochemisty with Immunology (3rd year)</t>
-  </si>
-  <si>
-    <t>BA(Mod) Biochemisty with Immunology (4th year)</t>
-  </si>
-  <si>
     <t>Ongoing small group tutorials for 3 students each year integrated with specific modules</t>
   </si>
   <si>
-    <t xml:space="preserve">This advanced course teaches most aspect of T cell biology form development, T cell education, tolerance, activation through the immunological synapse, APC function, co-stimulation, expansion, tissue/lymph node homing, T cell subset differentiation, regulation and the concept of immune responses types. Assessment: written exam </t>
-  </si>
-  <si>
     <t xml:space="preserve">Brief history of chemotherapy, failed early immune oncology interventions, recent success, checkpoint inhibitors, combination studies, CAR-T cell, future perspectives Assessment: written exam </t>
   </si>
   <si>
@@ -111,29 +99,53 @@
     <t>Introduction to Transcriptomics and single cell technologies</t>
   </si>
   <si>
-    <t>Transcriptomics (2 hr workdshop)</t>
-  </si>
-  <si>
     <t>Datascience for Immunology (3 workshops and assessment)</t>
   </si>
   <si>
-    <t xml:space="preserve">12 hours direct teaching time. Introduction to R programming, with a focus on analysis in R markdown. Analysing and visualising immunology data in R. Single cell RNA-sequencing analysis. Student assessment in Single cell RNA-sequencing analysis. Module design and module refrorm via comittee. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Introduction to omics technologies </t>
   </si>
   <si>
     <t>Core Research Skills Module</t>
   </si>
   <si>
-    <t>General introduction to ustilising omics technologies in reseach to new PhD students</t>
+    <t>Heritability, Genotyping, Genetics of Heritable Disease</t>
+  </si>
+  <si>
+    <t>Bioengineering (4th year)</t>
+  </si>
+  <si>
+    <t>Medium class size</t>
+  </si>
+  <si>
+    <t>Explores genetic inheritance, disease patterns, and population genetics. Students learn heritability concepts, genotyping methods, and genetic disease mechanisms, combining theoretical principles with practical medical applications.</t>
+  </si>
+  <si>
+    <t>Transcriptomics (2 hr workshop)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrated Tutorials </t>
+  </si>
+  <si>
+    <t>12 hours direct teaching time. Introduction to R programming, with a focus on analysis in R markdown. Analysing and visualising immunology data in R. Single cell RNA-sequencing analysis. Student assessment in Single cell RNA-sequencing analysis. Module design and module reform.</t>
+  </si>
+  <si>
+    <t>General introduction to omics technologies to new PhD students</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This advanced course teaches most aspects of T cell biology from development, T cell education, tolerance, activation through the immunological synapse, APC function, co-stimulation, expansion, tissue/lymph node homing, T cell subset differentiation, regulation and the concept of immune responses types. Assessment: written exam </t>
+  </si>
+  <si>
+    <t>BA(Mod) Biochemistry with Immunology (4th year)</t>
+  </si>
+  <si>
+    <t>BA(Mod) Biochemistry with Immunology (3rd year)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +165,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="-webkit-standard"/>
     </font>
   </fonts>
   <fills count="2">
@@ -175,12 +192,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,13 +480,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="78.83203125" customWidth="1"/>
     <col min="2" max="2" width="56" customWidth="1"/>
@@ -476,7 +495,7 @@
     <col min="5" max="5" width="87.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,12 +512,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -507,15 +526,15 @@
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -524,15 +543,15 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -541,10 +560,10 @@
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -558,10 +577,10 @@
         <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -575,10 +594,10 @@
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -592,15 +611,15 @@
         <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -609,12 +628,12 @@
         <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -626,12 +645,12 @@
         <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
@@ -643,15 +662,15 @@
         <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -660,7 +679,24 @@
         <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18">
+      <c r="A12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>2024</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/data/teaching.xlsx
+++ b/data/teaching.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorisco/Dropbox (Personal)/Jobs/CV and Publications/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3925624B-B10F-FC41-945F-FCAD727E165A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FFE5B9-538A-1041-988B-BF0DAB07AC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="4860" windowWidth="21460" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="440" yWindow="4780" windowWidth="21460" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>with</t>
   </si>
@@ -139,6 +139,24 @@
   </si>
   <si>
     <t>BA(Mod) Biochemistry with Immunology (3rd year)</t>
+  </si>
+  <si>
+    <t>MSc in Molecular Medicine</t>
+  </si>
+  <si>
+    <t>Week long course of workshops, lectures and practicles. 18 hours of direcet teaching time.</t>
+  </si>
+  <si>
+    <t>Malaria</t>
+  </si>
+  <si>
+    <t>Senior Freshmen Biology</t>
+  </si>
+  <si>
+    <t>150 students</t>
+  </si>
+  <si>
+    <t>Introduction to bioinformatics, transcriptomics and single cell RNA-sequencing</t>
   </si>
 </sst>
 </file>
@@ -480,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="200" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -699,6 +717,37 @@
         <v>30</v>
       </c>
     </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13">
+        <v>2024</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14">
+        <v>2026</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/teaching.xlsx
+++ b/data/teaching.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorisco/Dropbox (Personal)/Jobs/CV and Publications/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FFE5B9-538A-1041-988B-BF0DAB07AC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE7751C-6119-AF44-B5C8-1A348588504C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="4780" windowWidth="21460" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4240" yWindow="2980" windowWidth="25680" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
   <si>
     <t>with</t>
   </si>
@@ -156,7 +156,31 @@
     <t>150 students</t>
   </si>
   <si>
-    <t>Introduction to bioinformatics, transcriptomics and single cell RNA-sequencing</t>
+    <t>MSc in Genomic Medicine</t>
+  </si>
+  <si>
+    <t>25 Students</t>
+  </si>
+  <si>
+    <t>Cell Atlases</t>
+  </si>
+  <si>
+    <t>MSc in Molecular Medicine, Genomic Medicine</t>
+  </si>
+  <si>
+    <t>RNA-sequencing (3 Lectures)</t>
+  </si>
+  <si>
+    <t>Introduction to bioinformatics, transcriptomics and single cell RNA-sequencing (Full week)</t>
+  </si>
+  <si>
+    <t>Trinity Single Cell Analysis Workshop (Monthy Meeting)</t>
+  </si>
+  <si>
+    <t>Open to Postgraduates and Post-Docs</t>
+  </si>
+  <si>
+    <t>12 Members</t>
   </si>
 </sst>
 </file>
@@ -498,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="200" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -733,7 +757,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
         <v>38</v>
@@ -746,6 +770,48 @@
       </c>
       <c r="E14" s="2" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15">
+        <v>2025</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16">
+        <v>2025</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <v>2025</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
